--- a/src/main/resources/template/Consumer_DownLoad_Template.xlsx
+++ b/src/main/resources/template/Consumer_DownLoad_Template.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,6 @@
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="X1" s="9"/>
-      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
